--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H2">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I2">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J2">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N2">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O2">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P2">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q2">
-        <v>50.93881474382685</v>
+        <v>55.63237424314249</v>
       </c>
       <c r="R2">
-        <v>50.93881474382685</v>
+        <v>222.52949697257</v>
       </c>
       <c r="S2">
-        <v>0.03856986978383851</v>
+        <v>0.03453200098446169</v>
       </c>
       <c r="T2">
-        <v>0.03856986978383851</v>
+        <v>0.0226775609739161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H3">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I3">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J3">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N3">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P3">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q3">
-        <v>62.04076070504109</v>
+        <v>70.90080916873767</v>
       </c>
       <c r="R3">
-        <v>62.04076070504109</v>
+        <v>425.404855012426</v>
       </c>
       <c r="S3">
-        <v>0.04697604515766065</v>
+        <v>0.04400938923284897</v>
       </c>
       <c r="T3">
-        <v>0.04697604515766065</v>
+        <v>0.04335220574975451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H4">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I4">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J4">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N4">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O4">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P4">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q4">
-        <v>36.04099672959887</v>
+        <v>39.83397750680233</v>
       </c>
       <c r="R4">
-        <v>36.04099672959887</v>
+        <v>239.003865040814</v>
       </c>
       <c r="S4">
-        <v>0.027289534664896</v>
+        <v>0.02472565604459132</v>
       </c>
       <c r="T4">
-        <v>0.027289534664896</v>
+        <v>0.02435643272555804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H5">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I5">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J5">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N5">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O5">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P5">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q5">
-        <v>33.34211648323141</v>
+        <v>36.67351400095733</v>
       </c>
       <c r="R5">
-        <v>33.34211648323141</v>
+        <v>220.041084005744</v>
       </c>
       <c r="S5">
-        <v>0.02524599556434827</v>
+        <v>0.02276390031548639</v>
       </c>
       <c r="T5">
-        <v>0.02524599556434827</v>
+        <v>0.02242397150577275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H6">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I6">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J6">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N6">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O6">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P6">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q6">
-        <v>37.79235243443978</v>
+        <v>43.61041850515067</v>
       </c>
       <c r="R6">
-        <v>37.79235243443978</v>
+        <v>261.662511030904</v>
       </c>
       <c r="S6">
-        <v>0.02861562679759688</v>
+        <v>0.02706975992379617</v>
       </c>
       <c r="T6">
-        <v>0.02861562679759688</v>
+        <v>0.02666553256633099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H7">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I7">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J7">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N7">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O7">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P7">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q7">
-        <v>88.22906827541831</v>
+        <v>96.6210840160545</v>
       </c>
       <c r="R7">
-        <v>88.22906827541831</v>
+        <v>386.484336064218</v>
       </c>
       <c r="S7">
-        <v>0.06680531715639655</v>
+        <v>0.05997441981857218</v>
       </c>
       <c r="T7">
-        <v>0.06680531715639655</v>
+        <v>0.03938588913289162</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J8">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N8">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O8">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P8">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q8">
-        <v>15.508290802101</v>
+        <v>16.90037366792333</v>
       </c>
       <c r="R8">
-        <v>15.508290802101</v>
+        <v>101.40224200754</v>
       </c>
       <c r="S8">
-        <v>0.01174257312061672</v>
+        <v>0.01049036155796347</v>
       </c>
       <c r="T8">
-        <v>0.01174257312061672</v>
+        <v>0.01033371106888018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J9">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N9">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P9">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q9">
-        <v>18.88827141809258</v>
+        <v>21.53872065701911</v>
       </c>
       <c r="R9">
-        <v>18.88827141809258</v>
+        <v>193.848485913172</v>
       </c>
       <c r="S9">
-        <v>0.01430182804019634</v>
+        <v>0.01336946576613006</v>
       </c>
       <c r="T9">
-        <v>0.01430182804019634</v>
+        <v>0.01975473327717604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J10">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N10">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O10">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P10">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q10">
-        <v>10.97265927546785</v>
+        <v>12.10103134556755</v>
       </c>
       <c r="R10">
-        <v>10.97265927546785</v>
+        <v>108.909282110108</v>
       </c>
       <c r="S10">
-        <v>0.008308282035331639</v>
+        <v>0.007511324692198436</v>
       </c>
       <c r="T10">
-        <v>0.008308282035331639</v>
+        <v>0.01109873935490827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J11">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N11">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O11">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P11">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q11">
-        <v>10.15098684529446</v>
+        <v>11.14092466417422</v>
       </c>
       <c r="R11">
-        <v>10.15098684529446</v>
+        <v>100.268321977568</v>
       </c>
       <c r="S11">
-        <v>0.007686127813720137</v>
+        <v>0.006915369453578551</v>
       </c>
       <c r="T11">
-        <v>0.007686127813720137</v>
+        <v>0.0102181554190941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J12">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N12">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O12">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P12">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q12">
-        <v>11.50585844205983</v>
+        <v>13.24826377767644</v>
       </c>
       <c r="R12">
-        <v>11.50585844205983</v>
+        <v>119.234373999088</v>
       </c>
       <c r="S12">
-        <v>0.008712009969083686</v>
+        <v>0.008223432201790727</v>
       </c>
       <c r="T12">
-        <v>0.008712009969083686</v>
+        <v>0.01215094997893396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J13">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N13">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O13">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P13">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q13">
-        <v>26.86128554216958</v>
+        <v>29.352197282366</v>
       </c>
       <c r="R13">
-        <v>26.86128554216958</v>
+        <v>176.113183694196</v>
       </c>
       <c r="S13">
-        <v>0.02033883769770162</v>
+        <v>0.01821942923055664</v>
       </c>
       <c r="T13">
-        <v>0.02033883769770162</v>
+        <v>0.01794736210646228</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H14">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I14">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J14">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N14">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O14">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P14">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q14">
-        <v>75.82600634982415</v>
+        <v>82.9858683176725</v>
       </c>
       <c r="R14">
-        <v>75.82600634982415</v>
+        <v>497.915209906035</v>
       </c>
       <c r="S14">
-        <v>0.05741396233597396</v>
+        <v>0.05151079969943059</v>
       </c>
       <c r="T14">
-        <v>0.05741396233597396</v>
+        <v>0.05074159914124186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H15">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I15">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J15">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N15">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P15">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q15">
-        <v>92.35203329379526</v>
+        <v>105.7615335196403</v>
       </c>
       <c r="R15">
-        <v>92.35203329379526</v>
+        <v>951.8538016767631</v>
       </c>
       <c r="S15">
-        <v>0.06992714526884576</v>
+        <v>0.06564805887407509</v>
       </c>
       <c r="T15">
-        <v>0.06992714526884576</v>
+        <v>0.0970016241417172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H16">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I16">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J16">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N16">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O16">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P16">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q16">
-        <v>53.64955703457436</v>
+        <v>59.41966807853966</v>
       </c>
       <c r="R16">
-        <v>53.64955703457436</v>
+        <v>534.7770127068569</v>
       </c>
       <c r="S16">
-        <v>0.04062239059134996</v>
+        <v>0.03688284141202983</v>
       </c>
       <c r="T16">
-        <v>0.04062239059134996</v>
+        <v>0.05449811588170414</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H17">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I17">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J17">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N17">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O17">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P17">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q17">
-        <v>49.63208407750531</v>
+        <v>54.70525831467467</v>
       </c>
       <c r="R17">
-        <v>49.63208407750531</v>
+        <v>492.347324832072</v>
       </c>
       <c r="S17">
-        <v>0.03758043899523388</v>
+        <v>0.03395652369106705</v>
       </c>
       <c r="T17">
-        <v>0.03758043899523388</v>
+        <v>0.05017418648369148</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H18">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I18">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J18">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N18">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O18">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P18">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q18">
-        <v>56.25657310795405</v>
+        <v>65.05292101196133</v>
       </c>
       <c r="R18">
-        <v>56.25657310795405</v>
+        <v>585.4762891076521</v>
       </c>
       <c r="S18">
-        <v>0.04259637194486809</v>
+        <v>0.04037950137826554</v>
       </c>
       <c r="T18">
-        <v>0.04259637194486809</v>
+        <v>0.05966478343613706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H19">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I19">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J19">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N19">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O19">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P19">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q19">
-        <v>131.3351699472295</v>
+        <v>144.1280309163765</v>
       </c>
       <c r="R19">
-        <v>131.3351699472295</v>
+        <v>864.7681854982591</v>
       </c>
       <c r="S19">
-        <v>0.09944441048300651</v>
+        <v>0.08946282399777912</v>
       </c>
       <c r="T19">
-        <v>0.09944441048300651</v>
+        <v>0.08812689338598952</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H20">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I20">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J20">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.28312771147252</v>
+        <v>8.2840475</v>
       </c>
       <c r="N20">
-        <v>8.28312771147252</v>
+        <v>16.568095</v>
       </c>
       <c r="O20">
-        <v>0.1651797650911165</v>
+        <v>0.162064909128062</v>
       </c>
       <c r="P20">
-        <v>0.1651797650911165</v>
+        <v>0.1267883207199013</v>
       </c>
       <c r="Q20">
-        <v>75.87803822637956</v>
+        <v>105.5741504588962</v>
       </c>
       <c r="R20">
-        <v>75.87803822637956</v>
+        <v>422.296601835585</v>
       </c>
       <c r="S20">
-        <v>0.05745335985068731</v>
+        <v>0.06553174688620621</v>
       </c>
       <c r="T20">
-        <v>0.05745335985068731</v>
+        <v>0.04303544953586315</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H21">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I21">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J21">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.0884079620058</v>
+        <v>10.55762366666667</v>
       </c>
       <c r="N21">
-        <v>10.0884079620058</v>
+        <v>31.672871</v>
       </c>
       <c r="O21">
-        <v>0.2011801478081069</v>
+        <v>0.2065440016062932</v>
       </c>
       <c r="P21">
-        <v>0.2011801478081069</v>
+        <v>0.2423785067907964</v>
       </c>
       <c r="Q21">
-        <v>92.41540534551343</v>
+        <v>134.5492224028255</v>
       </c>
       <c r="R21">
-        <v>92.41540534551343</v>
+        <v>807.295334416953</v>
       </c>
       <c r="S21">
-        <v>0.06997512934140411</v>
+        <v>0.08351708773323913</v>
       </c>
       <c r="T21">
-        <v>0.06997512934140411</v>
+        <v>0.08226994362214868</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H22">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I22">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J22">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.86060316207513</v>
+        <v>5.931556333333333</v>
       </c>
       <c r="N22">
-        <v>5.86060316207513</v>
+        <v>17.794669</v>
       </c>
       <c r="O22">
-        <v>0.1168704730053873</v>
+        <v>0.1160419635630586</v>
       </c>
       <c r="P22">
-        <v>0.1168704730053873</v>
+        <v>0.13617475034254</v>
       </c>
       <c r="Q22">
-        <v>53.68637141084517</v>
+        <v>75.5933643295445</v>
       </c>
       <c r="R22">
-        <v>53.68637141084517</v>
+        <v>453.560185977267</v>
       </c>
       <c r="S22">
-        <v>0.0406502657138097</v>
+        <v>0.04692214141423903</v>
       </c>
       <c r="T22">
-        <v>0.0406502657138097</v>
+        <v>0.04622146238036952</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H23">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I23">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J23">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.42173999120912</v>
+        <v>5.460941333333333</v>
       </c>
       <c r="N23">
-        <v>5.42173999120912</v>
+        <v>16.382824</v>
       </c>
       <c r="O23">
-        <v>0.1081187891009624</v>
+        <v>0.1068350900861377</v>
       </c>
       <c r="P23">
-        <v>0.1081187891009624</v>
+        <v>0.1253705235037399</v>
       </c>
       <c r="Q23">
-        <v>49.6661416600713</v>
+        <v>69.59571899757201</v>
       </c>
       <c r="R23">
-        <v>49.6661416600713</v>
+        <v>417.574313985432</v>
       </c>
       <c r="S23">
-        <v>0.03760622672766008</v>
+        <v>0.04319929662600576</v>
       </c>
       <c r="T23">
-        <v>0.03760622672766008</v>
+        <v>0.04255421009518159</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H24">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I24">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J24">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.14538998022879</v>
+        <v>6.493894666666667</v>
       </c>
       <c r="N24">
-        <v>6.14538998022879</v>
+        <v>19.481684</v>
       </c>
       <c r="O24">
-        <v>0.1225496103267296</v>
+        <v>0.1270432658722128</v>
       </c>
       <c r="P24">
-        <v>0.1225496103267296</v>
+        <v>0.1490847317785038</v>
       </c>
       <c r="Q24">
-        <v>56.29517642109544</v>
+        <v>82.759956724402</v>
       </c>
       <c r="R24">
-        <v>56.29517642109544</v>
+        <v>496.559740346412</v>
       </c>
       <c r="S24">
-        <v>0.04262560161518092</v>
+        <v>0.05137057236836032</v>
       </c>
       <c r="T24">
-        <v>0.04262560161518092</v>
+        <v>0.05060346579710175</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H25">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I25">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J25">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.3468717139337</v>
+        <v>14.3875515</v>
       </c>
       <c r="N25">
-        <v>14.3468717139337</v>
+        <v>28.775103</v>
       </c>
       <c r="O25">
-        <v>0.2861012146676974</v>
+        <v>0.2814707697442357</v>
       </c>
       <c r="P25">
-        <v>0.2861012146676974</v>
+        <v>0.2202031668645185</v>
       </c>
       <c r="Q25">
-        <v>131.4252922638203</v>
+        <v>183.3588625362323</v>
       </c>
       <c r="R25">
-        <v>131.4252922638203</v>
+        <v>733.4354501449291</v>
       </c>
       <c r="S25">
-        <v>0.09951264933059271</v>
+        <v>0.1138140966973278</v>
       </c>
       <c r="T25">
-        <v>0.09951264933059271</v>
+        <v>0.07474302223917502</v>
       </c>
     </row>
   </sheetData>
